--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/56.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/56.xlsx
@@ -479,13 +479,13 @@
         <v>0.2327216268640353</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.811090684124791</v>
+        <v>-1.810165160881466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04071605376040577</v>
+        <v>0.04083567921362462</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07473982280612099</v>
+        <v>-0.0749932398846504</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2629083410160474</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.845316942907914</v>
+        <v>-1.844892744754724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01580247910845848</v>
+        <v>0.0160795064738074</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06296458575967054</v>
+        <v>-0.06293940145372973</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.3210852493940029</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.945589044020814</v>
+        <v>-1.945198687278731</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01433054294972189</v>
+        <v>-0.01453831347373358</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06111039123477833</v>
+        <v>-0.06144723132673668</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.3960179635731088</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.99751121277516</v>
+        <v>-1.99665258534449</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03558924520200898</v>
+        <v>-0.03570100055962133</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05862973709960844</v>
+        <v>-0.05886111791043964</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.4727803681563347</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.9650077179203</v>
+        <v>-1.963587165663327</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02400289045011461</v>
+        <v>-0.02384391451886324</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07171455805498106</v>
+        <v>-0.07215843144718785</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.5336710044750814</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.842196449999935</v>
+        <v>-1.84050831449234</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01692318072282457</v>
+        <v>0.01709317478792504</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06687130121873884</v>
+        <v>-0.0669862046145938</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.5636145370686029</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.578338115629377</v>
+        <v>-1.576275363570912</v>
       </c>
       <c r="F8" t="n">
         <v>0.05647198516462565</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06372798503350137</v>
+        <v>-0.0637720575688978</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.5571170619316012</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.182904374871051</v>
+        <v>-1.180286781072328</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05456427398960922</v>
+        <v>0.05426835839480469</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04976171337020037</v>
+        <v>-0.04974125112162346</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.5198523908258513</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6790844644295201</v>
+        <v>-0.6763551152731847</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05043876987268012</v>
+        <v>0.05002952490114194</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01824040644703279</v>
+        <v>-0.01838993826355636</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4710322041288115</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1706164755227885</v>
+        <v>-0.1679579572269116</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04293676646024058</v>
+        <v>-0.04344674865554201</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02061582958139599</v>
+        <v>0.02044898355453811</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4360675777090247</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4115486626623626</v>
+        <v>0.4143992112910381</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2293872014739136</v>
+        <v>-0.2294910867359194</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08277541870068145</v>
+        <v>0.08251413152654553</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4354442609659936</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9858200949541908</v>
+        <v>0.9890956287456175</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5203005635109493</v>
+        <v>-0.5198692822717129</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1748681294497421</v>
+        <v>0.1745423074916329</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4856599462114839</v>
       </c>
       <c r="E14" t="n">
-        <v>1.569238152359897</v>
+        <v>1.572886728683072</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.835646637358375</v>
+        <v>-0.8349147184669701</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2859041603236565</v>
+        <v>0.2851565012410387</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5902358671840694</v>
       </c>
       <c r="E15" t="n">
-        <v>2.241191637300525</v>
+        <v>2.245572132515104</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.174752529841834</v>
+        <v>-1.173916725688424</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4065243936271708</v>
+        <v>0.4058758977491949</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7465457887930507</v>
       </c>
       <c r="E16" t="n">
-        <v>2.77559788730717</v>
+        <v>2.780524567156841</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.524453145030769</v>
+        <v>-1.523585860494932</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5290979846602193</v>
+        <v>0.5287532744726544</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9413085379980325</v>
       </c>
       <c r="E17" t="n">
-        <v>3.273721422548714</v>
+        <v>3.278662268570477</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.865746924092836</v>
+        <v>-1.864877278528318</v>
       </c>
       <c r="G17" t="n">
-        <v>0.65577661756162</v>
+        <v>0.6550384025937299</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.150189408988073</v>
       </c>
       <c r="E18" t="n">
-        <v>3.693661854016131</v>
+        <v>3.698105309995563</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.185105959690018</v>
+        <v>-2.183681472385241</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8066400542618056</v>
+        <v>0.8061363681429894</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.357456075199399</v>
       </c>
       <c r="E19" t="n">
-        <v>4.046766285554878</v>
+        <v>4.050860309289381</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.543030824787749</v>
+        <v>-2.541345050308836</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9510374204116882</v>
+        <v>0.9504849397001116</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.551652243971485</v>
       </c>
       <c r="E20" t="n">
-        <v>4.355033208404254</v>
+        <v>4.359346020796617</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.872093688267749</v>
+        <v>-2.8699766325496</v>
       </c>
       <c r="G20" t="n">
-        <v>1.078584911868047</v>
+        <v>1.077649944509994</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.728751875424548</v>
       </c>
       <c r="E21" t="n">
-        <v>4.584465383563285</v>
+        <v>4.588010074624454</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.149189523448447</v>
+        <v>-3.146811180556162</v>
       </c>
       <c r="G21" t="n">
-        <v>1.192081134628554</v>
+        <v>1.190850251675697</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.883539899408621</v>
       </c>
       <c r="E22" t="n">
-        <v>4.752745341840662</v>
+        <v>4.756258552519405</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.376067852583167</v>
+        <v>-3.373099252520394</v>
       </c>
       <c r="G22" t="n">
-        <v>1.282846947258358</v>
+        <v>1.281271354117936</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.0098496271765</v>
       </c>
       <c r="E23" t="n">
-        <v>4.868053260609787</v>
+        <v>4.871394903204308</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.515992643399874</v>
+        <v>-3.513020895298858</v>
       </c>
       <c r="G23" t="n">
-        <v>1.362643420631818</v>
+        <v>1.360899407445417</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.106300467313699</v>
       </c>
       <c r="E24" t="n">
-        <v>4.937560370987304</v>
+        <v>4.940917753773038</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.633825288839565</v>
+        <v>-3.630717388084557</v>
       </c>
       <c r="G24" t="n">
-        <v>1.425594741369118</v>
+        <v>1.423753138997196</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.172501162740872</v>
       </c>
       <c r="E25" t="n">
-        <v>4.937135385824553</v>
+        <v>4.940122874116781</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.735015043100183</v>
+        <v>-3.731933113660676</v>
       </c>
       <c r="G25" t="n">
-        <v>1.465055400740126</v>
+        <v>1.463198058176991</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.214985873417107</v>
       </c>
       <c r="E26" t="n">
-        <v>4.931380771917078</v>
+        <v>4.933998365715801</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.750863841632559</v>
+        <v>-3.747938527095622</v>
       </c>
       <c r="G26" t="n">
-        <v>1.492150565894196</v>
+        <v>1.490149987591023</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.23823853461482</v>
       </c>
       <c r="E27" t="n">
-        <v>4.896080245083667</v>
+        <v>4.89826183558579</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.697252750361058</v>
+        <v>-3.694844501105468</v>
       </c>
       <c r="G27" t="n">
-        <v>1.486652517103493</v>
+        <v>1.484735361813748</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.244963651877898</v>
       </c>
       <c r="E28" t="n">
-        <v>4.746205292391658</v>
+        <v>4.748331792224535</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.624957265110157</v>
+        <v>-3.622760721426381</v>
       </c>
       <c r="G28" t="n">
-        <v>1.441405763442583</v>
+        <v>1.439348520451043</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.238111406912539</v>
       </c>
       <c r="E29" t="n">
-        <v>4.620932258565579</v>
+        <v>4.622863580027415</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.534316587000496</v>
+        <v>-3.532214484463999</v>
       </c>
       <c r="G29" t="n">
-        <v>1.395069788549733</v>
+        <v>1.393138467087897</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.215935079261704</v>
       </c>
       <c r="E30" t="n">
-        <v>4.476882750641504</v>
+        <v>4.478322978137494</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.414020601635969</v>
+        <v>-3.411418748028459</v>
       </c>
       <c r="G30" t="n">
-        <v>1.341668041821365</v>
+        <v>1.339791811028775</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.181548460364024</v>
       </c>
       <c r="E31" t="n">
-        <v>4.32551405380338</v>
+        <v>4.326702438239963</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.294390426359753</v>
+        <v>-3.29166422524166</v>
       </c>
       <c r="G31" t="n">
-        <v>1.270355531511716</v>
+        <v>1.268897989805392</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.134450115526304</v>
       </c>
       <c r="E32" t="n">
-        <v>4.184840816894495</v>
+        <v>4.186247989988939</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.157845054596479</v>
+        <v>-3.154958303528014</v>
       </c>
       <c r="G32" t="n">
-        <v>1.20261604460742</v>
+        <v>1.201026285294906</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.076914714572192</v>
       </c>
       <c r="E33" t="n">
-        <v>3.98207409966942</v>
+        <v>3.983358499272401</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.039382801508268</v>
+        <v>-3.036138748099268</v>
       </c>
       <c r="G33" t="n">
-        <v>1.131086319659031</v>
+        <v>1.129619333837979</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.013060389072309</v>
       </c>
       <c r="E34" t="n">
-        <v>3.724751879700062</v>
+        <v>3.726149608679777</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.959098382207205</v>
+        <v>-2.955995990519122</v>
       </c>
       <c r="G34" t="n">
-        <v>1.071468771420646</v>
+        <v>1.070052154211476</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.944049823288351</v>
       </c>
       <c r="E35" t="n">
-        <v>3.484026117345699</v>
+        <v>3.485406532115079</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.871795411644263</v>
+        <v>-2.868344374720811</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9792422690462752</v>
+        <v>0.9775549205482408</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.874509886182714</v>
       </c>
       <c r="E36" t="n">
-        <v>3.229206587779209</v>
+        <v>3.23023599628454</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.800016991674709</v>
+        <v>-2.797076723956119</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9064249964566627</v>
+        <v>0.9048021827426017</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.805726483185159</v>
       </c>
       <c r="E37" t="n">
-        <v>2.978262293289362</v>
+        <v>2.979565581121799</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.70094429313224</v>
+        <v>-2.698068560197624</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8490866279059213</v>
+        <v>0.8478006542838187</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.737713009977644</v>
       </c>
       <c r="E38" t="n">
-        <v>2.697043315020417</v>
+        <v>2.697875971135585</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.607492416871936</v>
+        <v>-2.605034586014026</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7839867710680462</v>
+        <v>0.7825670058206329</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.672122953955197</v>
       </c>
       <c r="E39" t="n">
-        <v>2.443624662471885</v>
+        <v>2.444303064713166</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.498290905283898</v>
+        <v>-2.495438782636101</v>
       </c>
       <c r="G39" t="n">
-        <v>0.714416699925677</v>
+        <v>0.7130016567356278</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.605301155677956</v>
       </c>
       <c r="E40" t="n">
-        <v>2.209388580954645</v>
+        <v>2.209974116067768</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.403917440828073</v>
+        <v>-2.400892176076933</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6580841295934468</v>
+        <v>0.6569791681702937</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.538602627173062</v>
       </c>
       <c r="E41" t="n">
-        <v>2.007670160464355</v>
+        <v>2.008321804380573</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.306456537865816</v>
+        <v>-2.30363038653352</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5928945536656575</v>
+        <v>0.5918305167396581</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.469663123975193</v>
       </c>
       <c r="E42" t="n">
-        <v>1.760114729142668</v>
+        <v>1.760261112920949</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.20774979876905</v>
+        <v>-2.205007857459744</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5219236055053308</v>
+        <v>0.5209587317839734</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.397947222856589</v>
       </c>
       <c r="E43" t="n">
-        <v>1.543022863894634</v>
+        <v>1.543180265806764</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.126494209670144</v>
+        <v>-2.123715278911488</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4680008584478118</v>
+        <v>0.4670847793192148</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.324140788346184</v>
       </c>
       <c r="E44" t="n">
-        <v>1.31702362443916</v>
+        <v>1.316773355398873</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.037851748834975</v>
+        <v>-2.035076753124122</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4166170042329508</v>
+        <v>0.4160928558655577</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.246462975990144</v>
       </c>
       <c r="E45" t="n">
-        <v>1.105722575538392</v>
+        <v>1.105543137358564</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.957639734413492</v>
+        <v>-1.955008761452238</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3565587306406018</v>
+        <v>0.3561290234204867</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.168030959223368</v>
       </c>
       <c r="E46" t="n">
-        <v>0.90781328132165</v>
+        <v>0.9074512569237508</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.89037796231251</v>
+        <v>-1.887779256743243</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2879314969518918</v>
+        <v>0.2874451250434099</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.088583934424087</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7485178241886564</v>
+        <v>0.7480141380698402</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.840034534736829</v>
+        <v>-1.837704986437304</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2480552965328602</v>
+        <v>0.2477452147659639</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.010281569443108</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5870958672227857</v>
+        <v>0.5866866222512476</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.77482134852222</v>
+        <v>-1.772346990463536</v>
       </c>
       <c r="G48" t="n">
-        <v>0.201679971161978</v>
+        <v>0.2015713638426083</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.9355341864043888</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4608044430252251</v>
+        <v>0.4602488142754059</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.726139298129072</v>
+        <v>-1.723717669710951</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1506597153641375</v>
+        <v>0.1502457483352354</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8643004371510346</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3560975430380607</v>
+        <v>0.3560487484453004</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.665563959255375</v>
+        <v>-1.66288261768224</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1149798499224935</v>
+        <v>0.1148334661442126</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.7978449386964259</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2264345698826739</v>
+        <v>0.2262535576837243</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.61190013834331</v>
+        <v>-1.609500546192888</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0783162225300366</v>
+        <v>0.07812576621635921</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.7350402153719336</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1194406201122597</v>
+        <v>0.1192816441810083</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.570082385338154</v>
+        <v>-1.567418357975353</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04688306067766186</v>
+        <v>0.04681065579808203</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.6774719639528788</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03051955789261991</v>
+        <v>0.03004735215622971</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.548135836729859</v>
+        <v>-1.545905451634976</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007389346905106305</v>
+        <v>0.007337404274103382</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.624984217863333</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06029190129170197</v>
+        <v>-0.06089789865340273</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.53080824723302</v>
+        <v>-1.528522771468892</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.012991052677495</v>
+        <v>-0.01309965999686475</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5762519551036568</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1325393789594035</v>
+        <v>-0.1331201920151635</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.518534833134678</v>
+        <v>-1.51615255519459</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04267547928610467</v>
+        <v>-0.04279353072020222</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.5311480195746731</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.199085759369754</v>
+        <v>-0.2000049865365936</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.52377710381817</v>
+        <v>-1.521449916547327</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07451316405265368</v>
+        <v>-0.07450686797616848</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4884299740645159</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2556135080730256</v>
+        <v>-0.2563611671556434</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.520854937319476</v>
+        <v>-1.518434882920476</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1049373796482747</v>
+        <v>-0.1053812530404815</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.4483175868372029</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3383833035666223</v>
+        <v>-0.3393702135556778</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.519990013812321</v>
+        <v>-1.517580190537609</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1259709971662158</v>
+        <v>-0.1262842269713546</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.4112382852677414</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4117766671546307</v>
+        <v>-0.4128832025969051</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.538140028300039</v>
+        <v>-1.535997788275949</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.149858311351075</v>
+        <v>-0.1501243205825748</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3767518326934218</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4829396456477562</v>
+        <v>-0.4836101777934302</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.552240091588651</v>
+        <v>-1.550185209625793</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.180847599811243</v>
+        <v>-0.1813481378918166</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3455440987240604</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5540396633760295</v>
+        <v>-0.5548502832234994</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.58029068634935</v>
+        <v>-1.578372744050045</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2034615325269699</v>
+        <v>-0.2038880917088424</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.316747315463617</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6084582264567582</v>
+        <v>-0.6093443992220505</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.610877025914465</v>
+        <v>-1.608658445962992</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2169335621861825</v>
+        <v>-0.2172326258192296</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2891692256663782</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6601899388974266</v>
+        <v>-0.6611784229056035</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.655003864970569</v>
+        <v>-1.652905697481875</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2497990814389409</v>
+        <v>-0.2501910122001447</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2620454710443333</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7151735748427023</v>
+        <v>-0.7163115906674026</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.695648186720796</v>
+        <v>-1.693699551048625</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2722760744911147</v>
+        <v>-0.2724822709960051</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.233177943046477</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.789065902492163</v>
+        <v>-0.7905108520455171</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.740340885651007</v>
+        <v>-1.738382018854549</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2970070629249911</v>
+        <v>-0.2975296372732629</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.203392444851402</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8599573626868641</v>
+        <v>-0.862003587544555</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.779386790983553</v>
+        <v>-1.777427137177533</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3183790945540119</v>
+        <v>-0.3187033424929998</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1718876456448294</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9129986590364546</v>
+        <v>-0.9150015983683097</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.810712919535679</v>
+        <v>-1.808565170444664</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3415392119048302</v>
+        <v>-0.3419374387425193</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1392869525375672</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9495458090139353</v>
+        <v>-0.9522838152754378</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.844842376142842</v>
+        <v>-1.84257657561773</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3652093114509499</v>
+        <v>-0.3657712362772543</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1050907251367123</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9704432738778839</v>
+        <v>-0.9734740476959484</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.886186349392486</v>
+        <v>-1.883391678442617</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3842250364553835</v>
+        <v>-0.384719278459472</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.06944503548495654</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9680491907943856</v>
+        <v>-0.9710697334881615</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.916737273527372</v>
+        <v>-1.914136993938983</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.405752895977413</v>
+        <v>-0.4065477756336699</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.03224465203608918</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9760987245807172</v>
+        <v>-0.9786218772321622</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.943003717614077</v>
+        <v>-1.940318440993138</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4150632190799066</v>
+        <v>-0.4158848570612256</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.006149749605160948</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9757225340107264</v>
+        <v>-0.9786864120161356</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.985741484795634</v>
+        <v>-1.98315930642714</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4203204429450509</v>
+        <v>-0.4211043044674586</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.04478158980002821</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9377446006519834</v>
+        <v>-0.940894212913706</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.009488711278697</v>
+        <v>-2.006483121766574</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4328653753418173</v>
+        <v>-0.4336272005965269</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.08356599933336592</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8860309894312099</v>
+        <v>-0.8889547299490259</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.046424643979139</v>
+        <v>-2.043636269105755</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4319272599455222</v>
+        <v>-0.4329031518007286</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1225646865739041</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8266157026499122</v>
+        <v>-0.829629949267203</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.072672986845949</v>
+        <v>-2.069735867165602</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.438977291589828</v>
+        <v>-0.4399043888522741</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1617984535315342</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7376694561243317</v>
+        <v>-0.7405404670015842</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.101979648865447</v>
+        <v>-2.099475384443457</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4315904198535638</v>
+        <v>-0.432386873528942</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2005827513721171</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6411222712619901</v>
+        <v>-0.644325400173837</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.094503845048829</v>
+        <v>-2.092304940336372</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4182663479917535</v>
+        <v>-0.4188943816211524</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2388117794348392</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.53010355459841</v>
+        <v>-0.5332106683438576</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.09725129542506</v>
+        <v>-2.095397887909728</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4102766269320312</v>
+        <v>-0.4108999385040663</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2753487642823072</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3729109870114742</v>
+        <v>-0.3759740282215253</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079332661748173</v>
+        <v>-2.077679154661246</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.385457493427362</v>
+        <v>-0.3860241403110302</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3101778210688246</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2318741516855687</v>
+        <v>-0.2351418153813889</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.046212938407324</v>
+        <v>-2.044564153377762</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3656342966137011</v>
+        <v>-0.3662639042622214</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3426052595414625</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.03229639720024793</v>
+        <v>-0.03537517860151208</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.013607132309581</v>
+        <v>-2.011724605440505</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3384415422741104</v>
+        <v>-0.3392065155670625</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3725742178290169</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1384657892314211</v>
+        <v>0.1356042224688964</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.970641132355436</v>
+        <v>-1.968701940797993</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.316249446682892</v>
+        <v>-0.3173969066223202</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3997192313332573</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3461969627650793</v>
+        <v>0.343080404904904</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.911626433440509</v>
+        <v>-1.909893438387957</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2784871539437672</v>
+        <v>-0.2793874928811512</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.423277908619513</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5537723084057289</v>
+        <v>0.5512853581940738</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.828919598711764</v>
+        <v>-1.827466779062804</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2467281701332832</v>
+        <v>-0.2478772040918327</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4426392821848523</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7351654199826627</v>
+        <v>0.7329775334040548</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.712832540477596</v>
+        <v>-1.711430876450078</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2199966033962336</v>
+        <v>-0.2213943323759487</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4574405317031901</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9507021543388511</v>
+        <v>0.9482765908729267</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.620328223728315</v>
+        <v>-1.619287010079575</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1862575035311534</v>
+        <v>-0.1876394923196554</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4673391399748531</v>
       </c>
       <c r="E87" t="n">
-        <v>1.15988614752147</v>
+        <v>1.157822608453445</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.497004612583967</v>
+        <v>-1.496448983834148</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1496237825020012</v>
+        <v>-0.1507161517721839</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4734373134772951</v>
       </c>
       <c r="E88" t="n">
-        <v>1.327100494853727</v>
+        <v>1.325465088986696</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.343231601538057</v>
+        <v>-1.342391862336843</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1218816954890766</v>
+        <v>-0.1231519289199662</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4764351877975682</v>
       </c>
       <c r="E89" t="n">
-        <v>1.459063109945334</v>
+        <v>1.457649640774406</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.162036029360846</v>
+        <v>-1.161138838461705</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09428914029267553</v>
+        <v>-0.09554835558971607</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4782044760876149</v>
       </c>
       <c r="E90" t="n">
-        <v>1.573664294128995</v>
+        <v>1.572368876392164</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9760034964238785</v>
+        <v>-0.9752109777963036</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07044117658584881</v>
+        <v>-0.07151465762657587</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.48065268183188</v>
       </c>
       <c r="E91" t="n">
-        <v>1.651686847952748</v>
+        <v>1.650049868066596</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7799192773782847</v>
+        <v>-0.7793211501121905</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07344283105016922</v>
+        <v>-0.07457297677926311</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4850739116029617</v>
       </c>
       <c r="E92" t="n">
-        <v>1.709788615777321</v>
+        <v>1.708765503348475</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.573384358376815</v>
+        <v>-0.5732442706750193</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06764571862641879</v>
+        <v>-0.06869716339944765</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4936701588513291</v>
       </c>
       <c r="E93" t="n">
-        <v>1.716629302878494</v>
+        <v>1.715960344751941</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002217927851624</v>
+        <v>-0.4002280888616476</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07337987028531719</v>
+        <v>-0.07422511855345566</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.5068765817044967</v>
       </c>
       <c r="E94" t="n">
-        <v>1.702774786572805</v>
+        <v>1.702206565670015</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2148243765636396</v>
+        <v>-0.2149062255579472</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0944386721091991</v>
+        <v>-0.09495495038098571</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.524382263431628</v>
       </c>
       <c r="E95" t="n">
-        <v>1.669750291388795</v>
+        <v>1.669287529767133</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07503573840092551</v>
+        <v>-0.07491139089034275</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09941729458987317</v>
+        <v>-0.1000280140089378</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.5414647383347223</v>
       </c>
       <c r="E96" t="n">
-        <v>1.605892335637626</v>
+        <v>1.60593326013478</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03524791133300718</v>
+        <v>0.03485755459092461</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1137692009378928</v>
+        <v>-0.1140777086856678</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.5525754965456753</v>
       </c>
       <c r="E97" t="n">
-        <v>1.509759117804187</v>
+        <v>1.510311598515763</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0984495011105937</v>
+        <v>0.09801034977575081</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1365295174319008</v>
+        <v>-0.1366727531719391</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.551522573205542</v>
       </c>
       <c r="E98" t="n">
-        <v>1.379549960013709</v>
+        <v>1.379691621734626</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1462304255567974</v>
+        <v>0.1459046035986881</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1449111692528269</v>
+        <v>-0.1450764412605635</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5365860674045801</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251767939708276</v>
+        <v>1.251920619563042</v>
       </c>
       <c r="F99" t="n">
-        <v>0.159090161777824</v>
+        <v>0.1585030526455788</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1602169311883548</v>
+        <v>-0.1603097983165116</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.50766109214157</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124007955670542</v>
+        <v>1.124055176244181</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1781389411838049</v>
+        <v>0.1773220252598499</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1673913103432434</v>
+        <v>-0.1674826034522788</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4722779592829791</v>
       </c>
       <c r="E101" t="n">
-        <v>1.011367999312022</v>
+        <v>1.011659192849463</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1892814225434925</v>
+        <v>0.188566817862422</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1910362255834223</v>
+        <v>-0.191149554960156</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.430079276079382</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8958900864777972</v>
+        <v>0.8960663766193829</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1875877779689729</v>
+        <v>0.1864891126223051</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1948815542967599</v>
+        <v>-0.1947099862125381</v>
       </c>
     </row>
   </sheetData>
